--- a/out/test/Figori_algorithm_15.xlsx
+++ b/out/test/Figori_algorithm_15.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.89380000000000004</v>
+        <v>0.89324999999999999</v>
       </c>
       <c r="B1">
-        <v>0.93489999999999995</v>
+        <v>0.86890000000000001</v>
       </c>
       <c r="C1">
+        <v>0.89975000000000005</v>
+      </c>
+      <c r="D1">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="E1">
+        <v>0.93794999999999995</v>
+      </c>
+      <c r="F1">
+        <v>0.93574999999999997</v>
+      </c>
+      <c r="G1">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="H1">
+        <v>0.874</v>
+      </c>
+      <c r="I1">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="J1">
+        <v>0.93095000000000006</v>
+      </c>
+      <c r="K1">
+        <v>0.84865000000000002</v>
+      </c>
+      <c r="L1">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="M1">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="N1">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="O1">
+        <v>0.93540000000000001</v>
+      </c>
+      <c r="P1">
+        <v>0.93194999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.93645</v>
+      </c>
+      <c r="R1">
+        <v>0.89205000000000001</v>
+      </c>
+      <c r="S1">
+        <v>0.89244999999999997</v>
+      </c>
+      <c r="T1">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="U1">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="V1">
+        <v>0.93225000000000002</v>
+      </c>
+      <c r="W1">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="X1">
+        <v>0.8952</v>
+      </c>
+      <c r="Y1">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="Z1">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="AA1">
+        <v>0.89</v>
+      </c>
+      <c r="AB1">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="AC1">
+        <v>0.90485000000000004</v>
+      </c>
+      <c r="AD1">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="AF1">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="AG1">
+        <v>0.93025000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="AI1">
+        <v>0.86314999999999997</v>
+      </c>
+      <c r="AJ1">
+        <v>0.93215000000000003</v>
+      </c>
+      <c r="AK1">
+        <v>0.93105000000000004</v>
+      </c>
+      <c r="AL1">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.95209999999999995</v>
+      </c>
+      <c r="AN1">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AO1">
         <v>0.87429999999999997</v>
       </c>
-      <c r="D1">
-        <v>0.93254999999999999</v>
-      </c>
-      <c r="E1">
-        <v>0.93654999999999999</v>
-      </c>
-      <c r="F1">
-        <v>0.93335000000000001</v>
-      </c>
-      <c r="G1">
-        <v>0.85409999999999997</v>
-      </c>
-      <c r="H1">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="I1">
-        <v>0.90939999999999999</v>
-      </c>
-      <c r="J1">
-        <v>0.93989999999999996</v>
-      </c>
-      <c r="K1">
-        <v>0.87109999999999999</v>
-      </c>
-      <c r="L1">
-        <v>0.93194999999999995</v>
-      </c>
-      <c r="M1">
-        <v>0.93194999999999995</v>
-      </c>
-      <c r="N1">
-        <v>0.8639</v>
-      </c>
-      <c r="O1">
-        <v>0.90515000000000001</v>
-      </c>
-      <c r="P1">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="Q1">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="R1">
-        <v>0.93789999999999996</v>
-      </c>
-      <c r="S1">
-        <v>0.87509999999999999</v>
-      </c>
-      <c r="T1">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="U1">
-        <v>0.93905000000000005</v>
-      </c>
-      <c r="V1">
-        <v>0.92715000000000003</v>
-      </c>
-      <c r="W1">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="X1">
-        <v>0.93564999999999998</v>
-      </c>
-      <c r="Y1">
-        <v>0.89085000000000003</v>
-      </c>
-      <c r="Z1">
-        <v>0.95469999999999999</v>
-      </c>
-      <c r="AA1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="AB1">
-        <v>0.89705000000000001</v>
-      </c>
-      <c r="AC1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="AD1">
-        <v>0.93664999999999998</v>
-      </c>
-      <c r="AE1">
-        <v>0.89305000000000001</v>
-      </c>
-      <c r="AF1">
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="AG1">
-        <v>0.93610000000000004</v>
-      </c>
-      <c r="AH1">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="AI1">
-        <v>0.93635000000000002</v>
-      </c>
-      <c r="AJ1">
-        <v>0.90105000000000002</v>
-      </c>
-      <c r="AK1">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="AL1">
-        <v>0.94040000000000001</v>
-      </c>
-      <c r="AM1">
-        <v>0.92930000000000001</v>
-      </c>
-      <c r="AN1">
-        <v>0.93010000000000004</v>
-      </c>
-      <c r="AO1">
-        <v>0.93215000000000003</v>
-      </c>
       <c r="AP1">
-        <v>0.93564999999999998</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="AQ1">
-        <v>0.93959999999999999</v>
+        <v>0.90139999999999998</v>
       </c>
       <c r="AR1">
-        <v>0.93510000000000004</v>
+        <v>0.93305000000000005</v>
       </c>
       <c r="AS1">
-        <v>0.95250000000000001</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="AT1">
-        <v>0.93364999999999998</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="AU1">
-        <v>0.93069999999999997</v>
+        <v>0.85675000000000001</v>
       </c>
       <c r="AV1">
-        <v>0.87509999999999999</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="AW1">
-        <v>0.94189999999999996</v>
+        <v>0.8548</v>
       </c>
       <c r="AX1">
-        <v>0.90059999999999996</v>
+        <v>0.89805000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87260000000000004</v>
+        <v>0.85580000000000001</v>
       </c>
       <c r="B2">
-        <v>0.92400000000000004</v>
+        <v>0.79159999999999997</v>
       </c>
       <c r="C2">
-        <v>0.77170000000000005</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="D2">
-        <v>0.90490000000000004</v>
+        <v>0.9153</v>
       </c>
       <c r="E2">
-        <v>0.90559999999999996</v>
+        <v>0.92879999999999996</v>
       </c>
       <c r="F2">
-        <v>0.96430000000000005</v>
+        <v>0.90385000000000004</v>
       </c>
       <c r="G2">
-        <v>0.80220000000000002</v>
+        <v>0.91359999999999997</v>
       </c>
       <c r="H2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K2">
         <v>0.86040000000000005</v>
       </c>
-      <c r="I2">
-        <v>0.88360000000000005</v>
-      </c>
-      <c r="J2">
-        <v>0.91074999999999995</v>
-      </c>
-      <c r="K2">
-        <v>0.80189999999999995</v>
-      </c>
       <c r="L2">
-        <v>0.89900000000000002</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="M2">
-        <v>0.89739999999999998</v>
+        <v>0.91690000000000005</v>
       </c>
       <c r="N2">
-        <v>0.8145</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="O2">
-        <v>0.84204999999999997</v>
+        <v>0.90605000000000002</v>
       </c>
       <c r="P2">
-        <v>0.90659999999999996</v>
+        <v>0.87070000000000003</v>
       </c>
       <c r="Q2">
-        <v>0.85909999999999997</v>
+        <v>0.93935000000000002</v>
       </c>
       <c r="R2">
-        <v>0.96325000000000005</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="S2">
-        <v>0.82025000000000003</v>
+        <v>0.86470000000000002</v>
       </c>
       <c r="T2">
-        <v>0.9375</v>
+        <v>0.91410000000000002</v>
       </c>
       <c r="U2">
-        <v>0.90949999999999998</v>
+        <v>0.9143</v>
       </c>
       <c r="V2">
-        <v>0.89900000000000002</v>
+        <v>0.91339999999999999</v>
       </c>
       <c r="W2">
-        <v>0.90280000000000005</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="X2">
-        <v>0.93335000000000001</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.84660000000000002</v>
+        <v>0.79954999999999998</v>
       </c>
       <c r="Z2">
-        <v>0.92949999999999999</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="AA2">
-        <v>0.90569999999999995</v>
+        <v>0.83650000000000002</v>
       </c>
       <c r="AB2">
-        <v>0.87224999999999997</v>
+        <v>0.91479999999999995</v>
       </c>
       <c r="AC2">
-        <v>0.86470000000000002</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="AD2">
-        <v>0.90090000000000003</v>
+        <v>0.90290000000000004</v>
       </c>
       <c r="AE2">
-        <v>0.88070000000000004</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.94310000000000005</v>
+        <v>0.83320000000000005</v>
       </c>
       <c r="AG2">
-        <v>0.91679999999999995</v>
+        <v>0.88134999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.93610000000000004</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="AI2">
-        <v>0.91685000000000005</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="AJ2">
-        <v>0.877</v>
+        <v>0.90024999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.90869999999999995</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="AL2">
-        <v>0.92849999999999999</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="AM2">
-        <v>0.88354999999999995</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="AN2">
-        <v>0.86770000000000003</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="AO2">
-        <v>0.89075000000000004</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="AP2">
-        <v>0.87605</v>
+        <v>0.8841</v>
       </c>
       <c r="AQ2">
-        <v>0.92569999999999997</v>
+        <v>0.89015</v>
       </c>
       <c r="AR2">
-        <v>0.90100000000000002</v>
+        <v>0.92825000000000002</v>
       </c>
       <c r="AS2">
-        <v>0.93130000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="AT2">
-        <v>0.92749999999999999</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="AU2">
-        <v>0.91510000000000002</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.79710000000000003</v>
+        <v>0.93879999999999997</v>
       </c>
       <c r="AW2">
-        <v>0.91349999999999998</v>
+        <v>0.86145000000000005</v>
       </c>
       <c r="AX2">
-        <v>0.85970000000000002</v>
+        <v>0.88149999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.83299999999999996</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="B3">
-        <v>0.95550000000000002</v>
+        <v>0.71230000000000004</v>
       </c>
       <c r="C3">
-        <v>0.69620000000000004</v>
+        <v>0.76259999999999994</v>
       </c>
       <c r="D3">
-        <v>0.9889</v>
+        <v>0.84519999999999995</v>
       </c>
       <c r="E3">
-        <v>0.97875000000000001</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="F3">
-        <v>0.94810000000000005</v>
+        <v>0.82194999999999996</v>
       </c>
       <c r="G3">
-        <v>0.65500000000000003</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="H3">
-        <v>0.73919999999999997</v>
+        <v>0.67459999999999998</v>
       </c>
       <c r="I3">
-        <v>0.97989999999999999</v>
+        <v>0.91720000000000002</v>
       </c>
       <c r="J3">
-        <v>0.86680000000000001</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="K3">
-        <v>0.83230000000000004</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="L3">
-        <v>0.87929999999999997</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="M3">
-        <v>0.88519999999999999</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="N3">
-        <v>0.72770000000000001</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="O3">
-        <v>0.74850000000000005</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="P3">
-        <v>0.89185000000000003</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.86770000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="R3">
-        <v>0.9536</v>
+        <v>0.91039999999999999</v>
       </c>
       <c r="S3">
-        <v>0.70120000000000005</v>
+        <v>0.76090000000000002</v>
       </c>
       <c r="T3">
-        <v>0.87960000000000005</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="U3">
-        <v>0.88859999999999995</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="V3">
-        <v>0.86370000000000002</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="W3">
-        <v>0.87939999999999996</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="X3">
-        <v>0.92290000000000005</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.70989999999999998</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.87009999999999998</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.97699999999999998</v>
+        <v>0.87649999999999995</v>
       </c>
       <c r="AB3">
-        <v>0.83360000000000001</v>
+        <v>0.86939999999999995</v>
       </c>
       <c r="AC3">
-        <v>0.9042</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="AD3">
-        <v>0.92279999999999995</v>
+        <v>0.84940000000000004</v>
       </c>
       <c r="AE3">
-        <v>0.86160000000000003</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="AF3">
-        <v>0.97409999999999997</v>
+        <v>0.6865</v>
       </c>
       <c r="AG3">
-        <v>0.93940000000000001</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.91144999999999998</v>
+        <v>0.73870000000000002</v>
       </c>
       <c r="AI3">
-        <v>0.84145000000000003</v>
+        <v>0.68089999999999995</v>
       </c>
       <c r="AJ3">
-        <v>0.89659999999999995</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="AK3">
-        <v>0.85240000000000005</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AL3">
-        <v>0.877</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.85040000000000004</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.82769999999999999</v>
+        <v>0.80715000000000003</v>
       </c>
       <c r="AO3">
-        <v>0.7984</v>
+        <v>0.68049999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.75814999999999999</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="AQ3">
-        <v>0.87575000000000003</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="AR3">
-        <v>0.85660000000000003</v>
+        <v>0.81105000000000005</v>
       </c>
       <c r="AS3">
-        <v>0.89200000000000002</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="AT3">
-        <v>0.86219999999999997</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="AU3">
-        <v>0.87119999999999997</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.62739999999999996</v>
+        <v>0.90110000000000001</v>
       </c>
       <c r="AW3">
-        <v>0.83819999999999995</v>
+        <v>0.77049999999999996</v>
       </c>
       <c r="AX3">
-        <v>0.61750000000000005</v>
+        <v>0.84840000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.96309999999999996</v>
+        <v>0.78720000000000001</v>
       </c>
       <c r="B4">
-        <v>0.86</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="C4">
-        <v>0.50670000000000004</v>
+        <v>0.56989999999999996</v>
       </c>
       <c r="D4">
-        <v>0.97440000000000004</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="E4">
-        <v>0.94640000000000002</v>
+        <v>0.8014</v>
       </c>
       <c r="F4">
-        <v>0.91110000000000002</v>
+        <v>0.9153</v>
       </c>
       <c r="G4">
-        <v>0.62460000000000004</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="H4">
-        <v>0.57720000000000005</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="I4">
-        <v>0.93440000000000001</v>
+        <v>0.86280000000000001</v>
       </c>
       <c r="J4">
-        <v>0.74590000000000001</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="K4">
-        <v>0.83460000000000001</v>
+        <v>0.85160000000000002</v>
       </c>
       <c r="L4">
-        <v>0.78290000000000004</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="M4">
-        <v>0.98970000000000002</v>
+        <v>0.755</v>
       </c>
       <c r="N4">
-        <v>0.54949999999999999</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="O4">
-        <v>0.89890000000000003</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="P4">
-        <v>0.78420000000000001</v>
+        <v>0.69815000000000005</v>
       </c>
       <c r="Q4">
-        <v>0.76229999999999998</v>
+        <v>0.92230000000000001</v>
       </c>
       <c r="R4">
-        <v>0.93220000000000003</v>
+        <v>0.80679999999999996</v>
       </c>
       <c r="S4">
-        <v>0.93020000000000003</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="T4">
-        <v>0.78580000000000005</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="U4">
-        <v>0.95630000000000004</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="V4">
-        <v>0.76700000000000002</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="W4">
-        <v>0.78749999999999998</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="X4">
-        <v>0.82330000000000003</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="Y4">
-        <v>0.77229999999999999</v>
+        <v>0.82809999999999995</v>
       </c>
       <c r="Z4">
-        <v>0.82620000000000005</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="AA4">
-        <v>0.90244999999999997</v>
+        <v>0.77629999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.68720000000000003</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.84950000000000003</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="AD4">
-        <v>0.83130000000000004</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="AE4">
-        <v>0.95730000000000004</v>
+        <v>0.7107</v>
       </c>
       <c r="AF4">
-        <v>0.91920000000000002</v>
+        <v>0.54705000000000004</v>
       </c>
       <c r="AG4">
-        <v>0.95250000000000001</v>
+        <v>0.6048</v>
       </c>
       <c r="AH4">
-        <v>0.76990000000000003</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.77339999999999998</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="AJ4">
-        <v>0.80030000000000001</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="AK4">
-        <v>0.69630000000000003</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="AL4">
-        <v>0.81564999999999999</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.78390000000000004</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="AN4">
-        <v>0.73340000000000005</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="AO4">
-        <v>0.77510000000000001</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="AP4">
-        <v>0.70430000000000004</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="AQ4">
-        <v>0.76739999999999997</v>
+        <v>0.94935000000000003</v>
       </c>
       <c r="AR4">
-        <v>0.94879999999999998</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="AS4">
-        <v>0.81620000000000004</v>
+        <v>0.81410000000000005</v>
       </c>
       <c r="AT4">
-        <v>0.78259999999999996</v>
+        <v>0.8841</v>
       </c>
       <c r="AU4">
-        <v>0.73960000000000004</v>
+        <v>0.89570000000000005</v>
       </c>
       <c r="AV4">
-        <v>0.72909999999999997</v>
+        <v>0.83040000000000003</v>
       </c>
       <c r="AW4">
-        <v>0.78964999999999996</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="AX4">
-        <v>0.48230000000000001</v>
+        <v>0.72189999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.94710000000000005</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="B5">
-        <v>0.70840000000000003</v>
+        <v>0.38109999999999999</v>
       </c>
       <c r="C5">
-        <v>0.61529999999999996</v>
+        <v>0.503</v>
       </c>
       <c r="D5">
-        <v>0.88200000000000001</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="E5">
-        <v>0.79920000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F5">
-        <v>0.86880000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G5">
-        <v>0.3997</v>
+        <v>0.753</v>
       </c>
       <c r="H5">
-        <v>0.41839999999999999</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="I5">
-        <v>0.81689999999999996</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="J5">
-        <v>0.58130000000000004</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="K5">
-        <v>0.94169999999999998</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="L5">
-        <v>0.70369999999999999</v>
+        <v>0.8125</v>
       </c>
       <c r="M5">
-        <v>0.97409999999999997</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="N5">
-        <v>0.79559999999999997</v>
+        <v>0.87319999999999998</v>
       </c>
       <c r="O5">
-        <v>0.87860000000000005</v>
+        <v>0.69359999999999999</v>
       </c>
       <c r="P5">
-        <v>0.94730000000000003</v>
+        <v>0.66069999999999995</v>
       </c>
       <c r="Q5">
-        <v>0.85099999999999998</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="R5">
-        <v>0.91900000000000004</v>
+        <v>0.78849999999999998</v>
       </c>
       <c r="S5">
-        <v>0.8851</v>
+        <v>0.58350000000000002</v>
       </c>
       <c r="T5">
-        <v>0.74824999999999997</v>
+        <v>0.78939999999999999</v>
       </c>
       <c r="U5">
-        <v>0.95650000000000002</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="V5">
-        <v>0.68700000000000006</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="W5">
-        <v>0.61839999999999995</v>
+        <v>0.6462</v>
       </c>
       <c r="X5">
-        <v>0.93959999999999999</v>
+        <v>0.44014999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.71760000000000002</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="Z5">
-        <v>0.87809999999999999</v>
+        <v>0.85860000000000003</v>
       </c>
       <c r="AA5">
-        <v>0.86875000000000002</v>
+        <v>0.61209999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.51929999999999998</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="AC5">
-        <v>0.78990000000000005</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="AD5">
-        <v>0.67559999999999998</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.94010000000000005</v>
+        <v>0.47360000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.90639999999999998</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.94830000000000003</v>
+        <v>0.58079999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.64490000000000003</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="AI5">
-        <v>0.60429999999999995</v>
+        <v>0.56410000000000005</v>
       </c>
       <c r="AJ5">
-        <v>0.66420000000000001</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AK5">
-        <v>0.7137</v>
+        <v>0.73760000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.69515000000000005</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="AM5">
-        <v>0.62280000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="AN5">
-        <v>0.68140000000000001</v>
+        <v>0.6794</v>
       </c>
       <c r="AO5">
-        <v>0.70420000000000005</v>
+        <v>0.37530000000000002</v>
       </c>
       <c r="AP5">
-        <v>0.6694</v>
+        <v>0.68810000000000004</v>
       </c>
       <c r="AQ5">
-        <v>0.50600000000000001</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="AR5">
-        <v>0.92130000000000001</v>
+        <v>0.71730000000000005</v>
       </c>
       <c r="AS5">
-        <v>0.7399</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="AT5">
-        <v>0.94479999999999997</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="AU5">
-        <v>0.71960000000000002</v>
+        <v>0.77</v>
       </c>
       <c r="AV5">
-        <v>0.80969999999999998</v>
+        <v>0.70889999999999997</v>
       </c>
       <c r="AW5">
-        <v>0.73260000000000003</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="AX5">
-        <v>0.65920000000000001</v>
+        <v>0.59560000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.79330000000000001</v>
+        <v>0.44180000000000003</v>
       </c>
       <c r="B6">
-        <v>0.78280000000000005</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="C6">
-        <v>0.74350000000000005</v>
+        <v>0.79820000000000002</v>
       </c>
       <c r="D6">
-        <v>0.82940000000000003</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="E6">
-        <v>0.85799999999999998</v>
+        <v>0.7853</v>
       </c>
       <c r="F6">
-        <v>0.86350000000000005</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="G6">
-        <v>0.29970000000000002</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="H6">
-        <v>0.3821</v>
+        <v>0.62529999999999997</v>
       </c>
       <c r="I6">
-        <v>0.93389999999999995</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="J6">
-        <v>0.57789999999999997</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="K6">
-        <v>0.91920000000000002</v>
+        <v>0.80810000000000004</v>
       </c>
       <c r="L6">
-        <v>0.78290000000000004</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="M6">
-        <v>0.95760000000000001</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="N6">
-        <v>0.64410000000000001</v>
+        <v>0.81759999999999999</v>
       </c>
       <c r="O6">
-        <v>0.84809999999999997</v>
+        <v>0.56820000000000004</v>
       </c>
       <c r="P6">
-        <v>0.79849999999999999</v>
+        <v>0.70340000000000003</v>
       </c>
       <c r="Q6">
-        <v>0.71209999999999996</v>
+        <v>0.95289999999999997</v>
       </c>
       <c r="R6">
-        <v>0.82730000000000004</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="S6">
-        <v>0.90100000000000002</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="T6">
-        <v>0.65790000000000004</v>
+        <v>0.6139</v>
       </c>
       <c r="U6">
-        <v>0.83</v>
+        <v>0.83340000000000003</v>
       </c>
       <c r="V6">
-        <v>0.49609999999999999</v>
+        <v>0.65159999999999996</v>
       </c>
       <c r="W6">
-        <v>0.41844999999999999</v>
+        <v>0.63660000000000005</v>
       </c>
       <c r="X6">
-        <v>0.97789999999999999</v>
+        <v>0.33829999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.59289999999999998</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.74990000000000001</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="AA6">
-        <v>0.81930000000000003</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="AB6">
-        <v>0.43359999999999999</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="AC6">
-        <v>0.71279999999999999</v>
+        <v>0.92010000000000003</v>
       </c>
       <c r="AD6">
-        <v>0.39369999999999999</v>
+        <v>0.9002</v>
       </c>
       <c r="AE6">
-        <v>0.8135</v>
+        <v>0.38190000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.95860000000000001</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="AG6">
-        <v>0.9667</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.48280000000000001</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.62339999999999995</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.50160000000000005</v>
+        <v>0.91439999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.6915</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="AL6">
-        <v>0.60780000000000001</v>
+        <v>0.72319999999999995</v>
       </c>
       <c r="AM6">
-        <v>0.38469999999999999</v>
+        <v>0.72209999999999996</v>
       </c>
       <c r="AN6">
-        <v>0.57750000000000001</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="AO6">
-        <v>0.79910000000000003</v>
+        <v>0.35039999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.5282</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="AQ6">
-        <v>0.39800000000000002</v>
+        <v>0.7863</v>
       </c>
       <c r="AR6">
-        <v>0.90080000000000005</v>
+        <v>0.86319999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.6784</v>
+        <v>0.59660000000000002</v>
       </c>
       <c r="AT6">
-        <v>0.87319999999999998</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="AU6">
-        <v>0.77370000000000005</v>
+        <v>0.8246</v>
       </c>
       <c r="AV6">
-        <v>0.75600000000000001</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="AW6">
-        <v>0.75019999999999998</v>
+        <v>0.6069</v>
       </c>
       <c r="AX6">
-        <v>0.84379999999999999</v>
+        <v>0.67030000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.52480000000000004</v>
+        <v>0.52959999999999996</v>
       </c>
       <c r="B7">
-        <v>0.66159999999999997</v>
+        <v>0.50160000000000005</v>
       </c>
       <c r="C7">
-        <v>0.83860000000000001</v>
+        <v>0.80430000000000001</v>
       </c>
       <c r="D7">
-        <v>0.81259999999999999</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="E7">
-        <v>0.72350000000000003</v>
+        <v>0.6522</v>
       </c>
       <c r="F7">
-        <v>0.82350000000000001</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="G7">
-        <v>0.1575</v>
+        <v>0.73870000000000002</v>
       </c>
       <c r="H7">
-        <v>0.5383</v>
+        <v>0.9254</v>
       </c>
       <c r="I7">
-        <v>0.76700000000000002</v>
+        <v>0.82420000000000004</v>
       </c>
       <c r="J7">
-        <v>0.61609999999999998</v>
+        <v>0.47689999999999999</v>
       </c>
       <c r="K7">
-        <v>0.96240000000000003</v>
+        <v>0.65259999999999996</v>
       </c>
       <c r="L7">
-        <v>0.497</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="M7">
-        <v>0.95520000000000005</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="N7">
-        <v>0.75960000000000005</v>
+        <v>0.76629999999999998</v>
       </c>
       <c r="O7">
-        <v>0.81100000000000005</v>
+        <v>0.38229999999999997</v>
       </c>
       <c r="P7">
-        <v>0.85040000000000004</v>
+        <v>0.60450000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.77839999999999998</v>
+        <v>0.90490000000000004</v>
       </c>
       <c r="R7">
-        <v>0.85640000000000005</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="S7">
-        <v>0.70709999999999995</v>
+        <v>0.5111</v>
       </c>
       <c r="T7">
-        <v>0.80120000000000002</v>
+        <v>0.59179999999999999</v>
       </c>
       <c r="U7">
-        <v>0.70620000000000005</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="V7">
-        <v>0.4945</v>
+        <v>0.61060000000000003</v>
       </c>
       <c r="W7">
-        <v>0.60070000000000001</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="X7">
-        <v>0.9607</v>
+        <v>0.47189999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.6331</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="Z7">
-        <v>0.54869999999999997</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="AA7">
-        <v>0.76590000000000003</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="AB7">
-        <v>0.52</v>
+        <v>0.8679</v>
       </c>
       <c r="AC7">
-        <v>0.76170000000000004</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.42059999999999997</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="AE7">
-        <v>0.64729999999999999</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.91410000000000002</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="AG7">
-        <v>0.90490000000000004</v>
+        <v>0.1857</v>
       </c>
       <c r="AH7">
-        <v>0.36420000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="AI7">
-        <v>0.54569999999999996</v>
+        <v>0.55179999999999996</v>
       </c>
       <c r="AJ7">
-        <v>0.68049999999999999</v>
+        <v>0.87660000000000005</v>
       </c>
       <c r="AK7">
-        <v>0.44929999999999998</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="AL7">
-        <v>0.50260000000000005</v>
+        <v>0.5403</v>
       </c>
       <c r="AM7">
-        <v>0.30309999999999998</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="AN7">
-        <v>0.51239999999999997</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.66320000000000001</v>
+        <v>0.45839999999999997</v>
       </c>
       <c r="AP7">
-        <v>0.56720000000000004</v>
+        <v>0.37709999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.34870000000000001</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="AR7">
-        <v>0.92179999999999995</v>
+        <v>0.65280000000000005</v>
       </c>
       <c r="AS7">
-        <v>0.73429999999999995</v>
+        <v>0.48809999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.82679999999999998</v>
+        <v>0.87480000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.56879999999999997</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="AV7">
-        <v>0.77159999999999995</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="AW7">
-        <v>0.83679999999999999</v>
+        <v>0.4788</v>
       </c>
       <c r="AX7">
-        <v>0.82389999999999997</v>
+        <v>0.66590000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.47339999999999999</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="B8">
-        <v>0.4204</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="C8">
-        <v>0.74919999999999998</v>
+        <v>0.70469999999999999</v>
       </c>
       <c r="D8">
-        <v>0.66090000000000004</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="E8">
-        <v>0.47020000000000001</v>
+        <v>0.7389</v>
       </c>
       <c r="F8">
-        <v>0.8548</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="G8">
-        <v>3.15E-2</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="H8">
-        <v>0.61</v>
+        <v>0.79339999999999999</v>
       </c>
       <c r="I8">
-        <v>0.72289999999999999</v>
+        <v>0.83379999999999999</v>
       </c>
       <c r="J8">
-        <v>0.55559999999999998</v>
+        <v>0.39839999999999998</v>
       </c>
       <c r="K8">
-        <v>0.84509999999999996</v>
+        <v>0.51080000000000003</v>
       </c>
       <c r="L8">
-        <v>0.24110000000000001</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="M8">
-        <v>0.92030000000000001</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="N8">
-        <v>0.71020000000000005</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="O8">
-        <v>0.92349999999999999</v>
+        <v>0.2102</v>
       </c>
       <c r="P8">
-        <v>0.68020000000000003</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="Q8">
-        <v>0.64829999999999999</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="R8">
-        <v>0.78669999999999995</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="S8">
-        <v>0.49769999999999998</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="T8">
-        <v>0.93479999999999996</v>
+        <v>0.56989999999999996</v>
       </c>
       <c r="U8">
-        <v>0.84689999999999999</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="V8">
-        <v>0.54049999999999998</v>
+        <v>0.71819999999999995</v>
       </c>
       <c r="W8">
-        <v>0.40129999999999999</v>
+        <v>0.6512</v>
       </c>
       <c r="X8">
-        <v>0.90669999999999995</v>
+        <v>0.55910000000000004</v>
       </c>
       <c r="Y8">
-        <v>0.76629999999999998</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.55779999999999996</v>
+        <v>0.625</v>
       </c>
       <c r="AA8">
-        <v>0.64880000000000004</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="AB8">
-        <v>0.58779999999999999</v>
+        <v>0.87739999999999996</v>
       </c>
       <c r="AC8">
-        <v>0.98970000000000002</v>
+        <v>0.68440000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.49930000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="AE8">
-        <v>0.70830000000000004</v>
+        <v>0.5534</v>
       </c>
       <c r="AF8">
-        <v>0.86770000000000003</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="AG8">
-        <v>0.96430000000000005</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.25340000000000001</v>
+        <v>0.26829999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.42399999999999999</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="AJ8">
-        <v>0.53610000000000002</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="AK8">
-        <v>0.41539999999999999</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.72770000000000001</v>
+        <v>0.49809999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.317</v>
+        <v>0.3337</v>
       </c>
       <c r="AN8">
-        <v>0.4778</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="AO8">
-        <v>0.7863</v>
+        <v>0.57310000000000005</v>
       </c>
       <c r="AP8">
-        <v>0.46279999999999999</v>
+        <v>0.2329</v>
       </c>
       <c r="AQ8">
-        <v>0.44579999999999997</v>
+        <v>0.60260000000000002</v>
       </c>
       <c r="AR8">
-        <v>0.85489999999999999</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="AS8">
-        <v>0.80730000000000002</v>
+        <v>0.54369999999999996</v>
       </c>
       <c r="AT8">
-        <v>0.87790000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AU8">
-        <v>0.42549999999999999</v>
+        <v>0.53490000000000004</v>
       </c>
       <c r="AV8">
-        <v>0.71020000000000005</v>
+        <v>0.57010000000000005</v>
       </c>
       <c r="AW8">
-        <v>0.71719999999999995</v>
+        <v>0.32890000000000003</v>
       </c>
       <c r="AX8">
-        <v>0.68469999999999998</v>
+        <v>0.3669</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.29260000000000003</v>
+        <v>0.4748</v>
       </c>
       <c r="B9">
-        <v>0.57130000000000003</v>
+        <v>0.27139999999999997</v>
       </c>
       <c r="C9">
-        <v>0.4602</v>
+        <v>0.73080000000000001</v>
       </c>
       <c r="D9">
-        <v>0.56699999999999995</v>
+        <v>0.89539999999999997</v>
       </c>
       <c r="E9">
-        <v>0.33850000000000002</v>
+        <v>0.81510000000000005</v>
       </c>
       <c r="F9">
-        <v>0.65859999999999996</v>
+        <v>0.82609999999999995</v>
       </c>
       <c r="G9">
-        <v>8.5999999999999993E-2</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="H9">
-        <v>0.4173</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="I9">
-        <v>0.55400000000000005</v>
+        <v>0.63829999999999998</v>
       </c>
       <c r="J9">
-        <v>0.70730000000000004</v>
+        <v>0.54179999999999995</v>
       </c>
       <c r="K9">
-        <v>0.73329999999999995</v>
+        <v>0.4763</v>
       </c>
       <c r="L9">
-        <v>0.37340000000000001</v>
+        <v>0.55169999999999997</v>
       </c>
       <c r="M9">
-        <v>0.82989999999999997</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="N9">
-        <v>0.74590000000000001</v>
+        <v>0.43269999999999997</v>
       </c>
       <c r="O9">
-        <v>0.89800000000000002</v>
+        <v>0.20019999999999999</v>
       </c>
       <c r="P9">
-        <v>0.67669999999999997</v>
+        <v>0.48720000000000002</v>
       </c>
       <c r="Q9">
-        <v>0.71060000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="R9">
-        <v>0.69620000000000004</v>
+        <v>0.82179999999999997</v>
       </c>
       <c r="S9">
-        <v>0.48049999999999998</v>
+        <v>0.75529999999999997</v>
       </c>
       <c r="T9">
-        <v>0.9375</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="U9">
-        <v>0.81340000000000001</v>
+        <v>0.95030000000000003</v>
       </c>
       <c r="V9">
-        <v>0.51200000000000001</v>
+        <v>0.59519999999999995</v>
       </c>
       <c r="W9">
-        <v>0.48670000000000002</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="X9">
-        <v>0.78779999999999994</v>
+        <v>0.59050000000000002</v>
       </c>
       <c r="Y9">
-        <v>0.64549999999999996</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="Z9">
-        <v>0.47439999999999999</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="AA9">
-        <v>0.5534</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.40289999999999998</v>
+        <v>0.9143</v>
       </c>
       <c r="AC9">
-        <v>0.87139999999999995</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="AD9">
-        <v>0.55779999999999996</v>
+        <v>0.6774</v>
       </c>
       <c r="AE9">
-        <v>0.47460000000000002</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="AF9">
-        <v>0.79679999999999995</v>
+        <v>0.56479999999999997</v>
       </c>
       <c r="AG9">
-        <v>0.9204</v>
+        <v>0.29139999999999999</v>
       </c>
       <c r="AH9">
-        <v>6.4600000000000005E-2</v>
+        <v>0.38440000000000002</v>
       </c>
       <c r="AI9">
-        <v>0.55840000000000001</v>
+        <v>0.62529999999999997</v>
       </c>
       <c r="AJ9">
-        <v>0.53720000000000001</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="AK9">
-        <v>0.72540000000000004</v>
+        <v>0.31280000000000002</v>
       </c>
       <c r="AL9">
-        <v>0.77629999999999999</v>
+        <v>0.40870000000000001</v>
       </c>
       <c r="AM9">
-        <v>0.38109999999999999</v>
+        <v>0.61639999999999995</v>
       </c>
       <c r="AN9">
-        <v>0.44409999999999999</v>
+        <v>0.60460000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.7</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.45860000000000001</v>
+        <v>0.44719999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.35210000000000002</v>
+        <v>0.37519999999999998</v>
       </c>
       <c r="AR9">
-        <v>0.82430000000000003</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="AS9">
-        <v>0.71919999999999995</v>
+        <v>0.81520000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.87509999999999999</v>
+        <v>0.94569999999999999</v>
       </c>
       <c r="AU9">
-        <v>0.44159999999999999</v>
+        <v>0.30370000000000003</v>
       </c>
       <c r="AV9">
-        <v>0.80720000000000003</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.57930000000000004</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.74629999999999996</v>
+        <v>0.19950000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.2954</v>
+        <v>0.26860000000000001</v>
       </c>
       <c r="B10">
-        <v>0.58579999999999999</v>
+        <v>0.37559999999999999</v>
       </c>
       <c r="C10">
-        <v>0.32369999999999999</v>
+        <v>0.69550000000000001</v>
       </c>
       <c r="D10">
-        <v>0.78800000000000003</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="E10">
-        <v>0.33629999999999999</v>
+        <v>0.77370000000000005</v>
       </c>
       <c r="F10">
-        <v>0.73619999999999997</v>
+        <v>0.92020000000000002</v>
       </c>
       <c r="G10">
-        <v>4.5400000000000003E-2</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="H10">
-        <v>0.4844</v>
+        <v>0.35859999999999997</v>
       </c>
       <c r="I10">
-        <v>0.65720000000000001</v>
+        <v>0.61460000000000004</v>
       </c>
       <c r="J10">
-        <v>0.7157</v>
+        <v>0.50349999999999995</v>
       </c>
       <c r="K10">
-        <v>0.71819999999999995</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="L10">
-        <v>0.31759999999999999</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="M10">
-        <v>0.70430000000000004</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="N10">
-        <v>0.74870000000000003</v>
+        <v>0.34039999999999998</v>
       </c>
       <c r="O10">
-        <v>0.93959999999999999</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="P10">
-        <v>0.51980000000000004</v>
+        <v>0.1419</v>
       </c>
       <c r="Q10">
-        <v>0.64929999999999999</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="R10">
-        <v>0.55800000000000005</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="S10">
-        <v>0.50229999999999997</v>
+        <v>0.77459999999999996</v>
       </c>
       <c r="T10">
-        <v>0.94130000000000003</v>
+        <v>0.69969999999999999</v>
       </c>
       <c r="U10">
-        <v>0.76770000000000005</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="V10">
-        <v>0.63980000000000004</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="W10">
-        <v>0.48880000000000001</v>
+        <v>0.61550000000000005</v>
       </c>
       <c r="X10">
-        <v>0.91039999999999999</v>
+        <v>0.66759999999999997</v>
       </c>
       <c r="Y10">
-        <v>0.44629999999999997</v>
+        <v>0.31290000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.50160000000000005</v>
+        <v>0.63019999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.57469999999999999</v>
+        <v>0.38390000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.43009999999999998</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.76429999999999998</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="AD10">
-        <v>0.67649999999999999</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.4511</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="AF10">
-        <v>0.82599999999999996</v>
+        <v>0.43940000000000001</v>
       </c>
       <c r="AG10">
-        <v>0.97940000000000005</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="AH10">
-        <v>6.6500000000000004E-2</v>
+        <v>0.34350000000000003</v>
       </c>
       <c r="AI10">
-        <v>0.56320000000000003</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.76570000000000005</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="AK10">
-        <v>0.78749999999999998</v>
+        <v>0.1047</v>
       </c>
       <c r="AL10">
-        <v>0.79649999999999999</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="AM10">
-        <v>0.61029999999999995</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="AN10">
-        <v>0.4824</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="AO10">
-        <v>0.6159</v>
+        <v>0.2505</v>
       </c>
       <c r="AP10">
-        <v>0.47710000000000002</v>
+        <v>0.70340000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.30349999999999999</v>
+        <v>0.43759999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.72209999999999996</v>
+        <v>0.41449999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.64829999999999999</v>
+        <v>0.56189999999999996</v>
       </c>
       <c r="AT10">
-        <v>0.87139999999999995</v>
+        <v>0.8679</v>
       </c>
       <c r="AU10">
-        <v>0.41880000000000001</v>
+        <v>0.2225</v>
       </c>
       <c r="AV10">
-        <v>0.68259999999999998</v>
+        <v>0.58130000000000004</v>
       </c>
       <c r="AW10">
-        <v>0.42130000000000001</v>
+        <v>0.41720000000000002</v>
       </c>
       <c r="AX10">
-        <v>0.58950000000000002</v>
+        <v>0.17219999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.1575</v>
+        <v>0.57740000000000002</v>
       </c>
       <c r="B11">
-        <v>0.30819999999999997</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="C11">
-        <v>0.14219999999999999</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="D11">
-        <v>0.61019999999999996</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="E11">
-        <v>0.5151</v>
+        <v>0.71679999999999999</v>
       </c>
       <c r="F11">
-        <v>0.56559999999999999</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="G11">
-        <v>4.7699999999999999E-2</v>
+        <v>0.54430000000000001</v>
       </c>
       <c r="H11">
-        <v>0.35580000000000001</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="I11">
-        <v>0.60150000000000003</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="J11">
-        <v>0.63829999999999998</v>
+        <v>0.61609999999999998</v>
       </c>
       <c r="K11">
-        <v>0.6351</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="L11">
-        <v>0.41410000000000002</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="M11">
-        <v>0.63580000000000003</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="N11">
-        <v>0.72970000000000002</v>
+        <v>0.53890000000000005</v>
       </c>
       <c r="O11">
-        <v>0.81340000000000001</v>
+        <v>0.42359999999999998</v>
       </c>
       <c r="P11">
-        <v>0.65410000000000001</v>
+        <v>0.31209999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.54890000000000005</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="R11">
-        <v>0.63690000000000002</v>
+        <v>0.83450000000000002</v>
       </c>
       <c r="S11">
-        <v>0.50980000000000003</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="T11">
-        <v>0.84150000000000003</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="U11">
-        <v>0.85640000000000005</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="V11">
-        <v>0.42020000000000002</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="W11">
-        <v>0.60040000000000004</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="X11">
-        <v>0.75939999999999996</v>
+        <v>0.57469999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.60589999999999999</v>
+        <v>0.1963</v>
       </c>
       <c r="Z11">
-        <v>0.72389999999999999</v>
+        <v>0.77529999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.78680000000000005</v>
+        <v>0.2225</v>
       </c>
       <c r="AB11">
-        <v>0.44769999999999999</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.67249999999999999</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="AD11">
-        <v>0.58440000000000003</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="AE11">
-        <v>0.44979999999999998</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="AF11">
-        <v>0.81030000000000002</v>
+        <v>0.31850000000000001</v>
       </c>
       <c r="AG11">
-        <v>0.96089999999999998</v>
+        <v>0.43569999999999998</v>
       </c>
       <c r="AH11">
-        <v>5.5500000000000001E-2</v>
+        <v>0.54769999999999996</v>
       </c>
       <c r="AI11">
-        <v>0.57709999999999995</v>
+        <v>0.7046</v>
       </c>
       <c r="AJ11">
-        <v>0.75190000000000001</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.69199999999999995</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.67310000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AM11">
-        <v>0.50690000000000002</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="AN11">
-        <v>0.42459999999999998</v>
+        <v>0.64359999999999995</v>
       </c>
       <c r="AO11">
-        <v>0.66080000000000005</v>
+        <v>0.41360000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.52210000000000001</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="AQ11">
-        <v>0.21609999999999999</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="AR11">
-        <v>0.87609999999999999</v>
+        <v>0.26769999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.51729999999999998</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="AT11">
-        <v>0.87229999999999996</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="AU11">
-        <v>0.42109999999999997</v>
+        <v>0.22639999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.7248</v>
+        <v>0.69210000000000005</v>
       </c>
       <c r="AW11">
-        <v>0.49280000000000002</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="AX11">
-        <v>0.48449999999999999</v>
+        <v>0.1022</v>
       </c>
     </row>
   </sheetData>
